--- a/src/test/resources/bulk/image_manifest_empty_column.xlsx
+++ b/src/test/resources/bulk/image_manifest_empty_column.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="21080" windowHeight="10040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>5127663428_42ef7f4463_b.jpg</t>
   </si>
@@ -46,16 +51,26 @@
   </si>
   <si>
     <t>documentType</t>
+  </si>
+  <si>
+    <t>Date Created (Year)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -405,8 +421,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -416,8 +435,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -427,9 +449,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -439,9 +472,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -451,8 +489,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>